--- a/src/main/java/com/test/automation/uiautomation/data/TestData.xlsx
+++ b/src/main/java/com/test/automation/uiautomation/data/TestData.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumAppium\uiautomations\src\main\java\com\test\automation\uiautomation\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="2730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
-  <si>
-    <t>automation@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -44,19 +37,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>password3</t>
-  </si>
-  <si>
-    <t>password4</t>
-  </si>
-  <si>
-    <t>password5</t>
-  </si>
-  <si>
-    <t>password6</t>
+    <t>automation2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -422,7 +403,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,79 +414,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -513,6 +494,11 @@
     <hyperlink ref="A1" r:id="rId1" display="automation@gmail.com"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3:A7" r:id="rId3" display="automation@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="A7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
